--- a/metric_evaluation/results/sys_p_value.xlsx
+++ b/metric_evaluation/results/sys_p_value.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,74 +1355,74 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>questeval_score</t>
+          <t>qafacteval_score</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.03556566708662443</v>
+        <v>0.02639976320159852</v>
       </c>
       <c r="C50" t="n">
-        <v>0.02639976320159852</v>
+        <v>0.01927860024400203</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01584819484968089</v>
+        <v>0.01166740935745264</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1000083166999802</v>
+        <v>0.1882241761928514</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>R1_F1</t>
+          <t>questeval_score</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.5906396351113613</v>
+        <v>0.03556566708662443</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2791797743335442</v>
+        <v>0.02639976320159852</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1540113139924963</v>
+        <v>0.01584819484968089</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9126836080591444</v>
+        <v>0.1000083166999802</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>R2_F1</t>
+          <t>R1_F1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0.5906396351113613</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8299103030594847</v>
+        <v>0.2791797743335442</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4427370190643439</v>
+        <v>0.1540113139924963</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5835057661545309</v>
+        <v>0.9126836080591444</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RL_F1</t>
+          <t>R2_F1</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.667174486232646</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9144846237132943</v>
+        <v>0.8299103030594847</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7421839102908943</v>
+        <v>0.4427370190643439</v>
       </c>
       <c r="E53" t="n">
         <v>0.5835057661545309</v>
@@ -1431,228 +1431,285 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>s3_score_responsiveness</t>
+          <t>RL_F1</t>
         </is>
       </c>
       <c r="B54" t="n">
+        <v>0.667174486232646</v>
+      </c>
+      <c r="C54" t="n">
         <v>0.9144846237132943</v>
       </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
       <c r="D54" t="n">
-        <v>0.82640978682081</v>
+        <v>0.7421839102908943</v>
       </c>
       <c r="E54" t="n">
-        <v>0.82640978682081</v>
+        <v>0.5835057661545309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>s3_score_pyramid</t>
+          <t>s3_score_responsiveness</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.5906396351113613</v>
+        <v>0.9144846237132943</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5182528584593317</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3236975547961513</v>
+        <v>0.82640978682081</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5835057661545309</v>
+        <v>0.82640978682081</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sms_elmo</t>
+          <t>s3_score_pyramid</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2791797743335442</v>
+        <v>0.5906396351113613</v>
       </c>
       <c r="C56" t="n">
-        <v>0.157163016037644</v>
+        <v>0.5182528584593317</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1882241761928514</v>
+        <v>0.3236975547961513</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07935042896636833</v>
+        <v>0.5835057661545309</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sms_glove</t>
+          <t>sms_elmo</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1925076217598539</v>
+        <v>0.2791797743335442</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2331118486984062</v>
+        <v>0.157163016037644</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0623046087721306</v>
+        <v>0.1882241761928514</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1247447549328659</v>
+        <v>0.07935042896636833</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>summa_qa_score_avg_prob</t>
+          <t>sms_glove</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.003024811732028994</v>
+        <v>0.1925076217598539</v>
       </c>
       <c r="C58" t="n">
-        <v>0.001957077222454207</v>
+        <v>0.2331118486984062</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0006756330284173986</v>
+        <v>0.0623046087721306</v>
       </c>
       <c r="E58" t="n">
-        <v>0.02830129789154884</v>
+        <v>0.1247447549328659</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>summa_qa_score_avg_fscore</t>
+          <t>summac_score_snt</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.004565983394728434</v>
+        <v>0.3879883441211566</v>
       </c>
       <c r="C59" t="n">
-        <v>0.003024811732028994</v>
+        <v>0.4505630133066889</v>
       </c>
       <c r="D59" t="n">
-        <v>0.001003204087863996</v>
+        <v>0.272841563589449</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0623046087721306</v>
+        <v>0.82640978682081</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>supert_score</t>
+          <t>summac_score_doc</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.006742338739486557</v>
+        <v>0.157163016037644</v>
       </c>
       <c r="C60" t="n">
-        <v>0.004565983394728434</v>
+        <v>0.1925076217598539</v>
       </c>
       <c r="D60" t="n">
-        <v>0.003069766801072867</v>
+        <v>0.04840722228337355</v>
       </c>
       <c r="E60" t="n">
-        <v>0.04840722228337355</v>
+        <v>0.5835057661545309</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ter_score</t>
+          <t>summa_qa_score_avg_prob</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5906396351113613</v>
+        <v>0.003024811732028994</v>
       </c>
       <c r="C61" t="n">
-        <v>0.667174486232646</v>
+        <v>0.001957077222454207</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3803596799568602</v>
+        <v>0.0006756330284173986</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7421839102908943</v>
+        <v>0.02830129789154884</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>asp_rel</t>
+          <t>summa_qa_score_avg_fscore</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.294149119545945e-11</v>
+        <v>0.004565983394728434</v>
       </c>
       <c r="C62" t="n">
-        <v>1.514436658285865e-06</v>
+        <v>0.003024811732028994</v>
       </c>
       <c r="D62" t="n">
-        <v>4.966324030587148e-05</v>
+        <v>0.001003204087863996</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0004499047433477926</v>
+        <v>0.0623046087721306</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>self_coh</t>
+          <t>supert_score</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.514436658285865e-06</v>
+        <v>0.006742338739486557</v>
       </c>
       <c r="C63" t="n">
-        <v>2.294149119545945e-11</v>
+        <v>0.004565983394728434</v>
       </c>
       <c r="D63" t="n">
-        <v>3.088235076193721e-05</v>
+        <v>0.003069766801072867</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0004499047433477926</v>
+        <v>0.04840722228337355</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sent_con</t>
+          <t>ter_score</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.966324030587148e-05</v>
+        <v>0.5906396351113613</v>
       </c>
       <c r="C64" t="n">
-        <v>3.088235076193721e-05</v>
+        <v>0.667174486232646</v>
       </c>
       <c r="D64" t="n">
-        <v>7.740804583966695e-07</v>
+        <v>0.3803596799568602</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001749246602878686</v>
+        <v>0.7421839102908943</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>asp_rel</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2.294149119545945e-11</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.514436658285865e-06</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.966324030587148e-05</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0004499047433477926</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>self_coh</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1.514436658285865e-06</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.294149119545945e-11</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.088235076193721e-05</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0004499047433477926</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>sent_con</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4.966324030587148e-05</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.088235076193721e-05</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7.740804583966695e-07</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.001749246602878686</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>readblty</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B68" t="n">
         <v>0.0004499047433477926</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C68" t="n">
         <v>0.0004499047433477926</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D68" t="n">
         <v>0.001749246602878686</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E68" t="n">
         <v>7.740804583966695e-07</v>
       </c>
     </row>
